--- a/schedule/schedule.xlsx
+++ b/schedule/schedule.xlsx
@@ -7,17 +7,17 @@
     <sheet state="visible" name="Life Plan" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_E005D83D_BB95_4D64_AE13_09B252B0E493_.wvu.FilterData">#REF!</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0D786860_9D95_4376_AD7C_FD0439781AD4_.wvu.FilterData">#REF!</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{E005D83D-BB95-4D64-AE13-09B252B0E493}" name="Фільтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{0D786860-9D95-4376-AD7C-FD0439781AD4}" name="Фільтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="663">
   <si>
     <t>Time</t>
   </si>
@@ -112,7 +112,7 @@
     <t>One Hundred Years of Cinema</t>
   </si>
   <si>
-    <t>Berserk</t>
+    <t>Wally</t>
   </si>
   <si>
     <t>StopGame's stream</t>
@@ -172,12 +172,15 @@
     <t>An extension for Twitch</t>
   </si>
   <si>
+    <t>Habr</t>
+  </si>
+  <si>
+    <t>Rhythmbox</t>
+  </si>
+  <si>
     <t>Essay basics</t>
   </si>
   <si>
-    <t>Rhythmbox</t>
-  </si>
-  <si>
     <t>Algorithms: notes: Quicksort</t>
   </si>
   <si>
@@ -250,13 +253,13 @@
     <t>Coding challenges</t>
   </si>
   <si>
+    <t>Excel Essentials: Level 1 Basics (Skillshare )</t>
+  </si>
+  <si>
     <t>Excel Essentials: Level 2 - For Intermediate/Advanced Students (Skillshare)</t>
   </si>
   <si>
     <t>Excel Essentials: Level 3 - VBA Programming (Skillshare)</t>
-  </si>
-  <si>
-    <t>Excel Essentials: Level 1 Basics (Skillshare )</t>
   </si>
   <si>
     <t>h</t>
@@ -489,7 +492,7 @@
     <t>Creativity</t>
   </si>
   <si>
-    <t>Film / Game Analysis</t>
+    <t>Film / Game / IT Analysis</t>
   </si>
   <si>
     <t>Game Development</t>
@@ -558,7 +561,7 @@
     <t>I can't do everything. That's why each section must have at least one "asleep" (zzz) and at least one "half-asleep" (z). "asleep" means partially deactivated for now, "half-asleep" means partially dectivated for now.</t>
   </si>
   <si>
-    <t>Film / Game Analysis [z - half-asleep]</t>
+    <t>Film / Game / IT Analysis [z - half-asleep]</t>
   </si>
   <si>
     <t>Hours</t>
@@ -568,6 +571,15 @@
   </si>
   <si>
     <t>Next</t>
+  </si>
+  <si>
+    <t>Articles on Habr (and other sites)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Gamasutra</t>
   </si>
   <si>
     <t>Essays</t>
@@ -1411,6 +1423,9 @@
   </si>
   <si>
     <t>Graphic novels (comics, novels)</t>
+  </si>
+  <si>
+    <t>Berserk</t>
   </si>
   <si>
     <t>Watchmen</t>
@@ -2080,7 +2095,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFC62D2D"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2176,7 +2191,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2275,6 +2290,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF759DB2"/>
+        <bgColor rgb="FF759DB2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CBB2"/>
         <bgColor rgb="FFF4CBB2"/>
       </patternFill>
@@ -2311,8 +2332,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFCB3968"/>
+        <bgColor rgb="FFCB3968"/>
       </patternFill>
     </fill>
     <fill>
@@ -2416,25 +2437,25 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="20" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="21" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="22" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2453,16 +2474,16 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="22" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="23" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2474,16 +2495,16 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="23" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="24" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="24" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="25" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="25" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="26" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="26" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="27" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2522,7 +2543,7 @@
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="20" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="21" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3965,7 +3986,7 @@
         <v>50</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U50" s="5"/>
       <c r="W50" s="5"/>
@@ -3978,13 +3999,13 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E51" s="30" t="s">
         <v>52</v>
@@ -3996,7 +4017,7 @@
         <v>50</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U51" s="5"/>
       <c r="W51" s="5"/>
@@ -4009,16 +4030,16 @@
         <v>0.0625</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F52" s="29" t="s">
         <v>49</v>
@@ -4027,7 +4048,7 @@
         <v>50</v>
       </c>
       <c r="H52" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U52" s="5"/>
       <c r="W52" s="5"/>
@@ -4040,25 +4061,25 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="33" t="s">
         <v>58</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>57</v>
       </c>
       <c r="E53" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
@@ -4072,25 +4093,25 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E54" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
@@ -4104,25 +4125,25 @@
         <v>0.125</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E55" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F55" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
@@ -4136,25 +4157,25 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D56" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E56" s="29" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
@@ -4168,25 +4189,25 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C57" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="D57" s="34" t="s">
-        <v>68</v>
-      </c>
       <c r="E57" s="33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G57" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -4194,25 +4215,25 @@
         <v>0.1875</v>
       </c>
       <c r="B58" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" s="31" t="s">
         <v>74</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D58" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="G58" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59">
@@ -4235,10 +4256,10 @@
         <v>49</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" s="31" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60">
@@ -4246,25 +4267,25 @@
         <v>41</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61">
@@ -4272,25 +4293,25 @@
         <v>41</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H61" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -4298,25 +4319,16 @@
         <v>0.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
@@ -4324,25 +4336,16 @@
         <v>0.020833333333333332</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -4350,25 +4353,16 @@
         <v>0.041666666666666664</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -4376,25 +4370,16 @@
         <v>0.0625</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
@@ -4402,25 +4387,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
@@ -4430,25 +4406,16 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
@@ -4458,25 +4425,16 @@
         <v>0.125</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
@@ -4486,25 +4444,16 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
@@ -4514,25 +4463,16 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
@@ -4542,25 +4482,16 @@
         <v>0.1875</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
@@ -4570,24 +4501,18 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G72" s="36"/>
-      <c r="H72" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
     </row>
@@ -4596,24 +4521,18 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G73" s="36"/>
-      <c r="H73" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
     </row>
@@ -4640,7 +4559,7 @@
     </row>
     <row r="77">
       <c r="A77" s="38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B77" s="5">
         <f>COUNTA(#REF!)/2</f>
@@ -4687,7 +4606,7 @@
     </row>
     <row r="79">
       <c r="B79" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
@@ -4705,45 +4624,43 @@
     </row>
     <row r="80">
       <c r="B80" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G80" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I80" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J80" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K80" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L80" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="M80" s="40" t="s">
-        <v>55</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
@@ -4756,39 +4673,37 @@
     </row>
     <row r="81">
       <c r="B81" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H81" s="34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I81" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J81" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K81" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L81" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M81" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
@@ -4796,42 +4711,40 @@
     </row>
     <row r="82">
       <c r="B82" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H82" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I82" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J82" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K82" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L82" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M82" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
@@ -4839,39 +4752,37 @@
     </row>
     <row r="83">
       <c r="B83" s="29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D83" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E83" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G83" s="34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I83" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J83" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K83" s="33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="M83" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
@@ -4881,39 +4792,37 @@
     </row>
     <row r="84">
       <c r="B84" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D84" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E84" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I84" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J84" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K84" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L84" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="M84" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
@@ -4923,36 +4832,34 @@
     </row>
     <row r="85">
       <c r="B85" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C85" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="G85" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I85" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J85" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="L85" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G85" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I85" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="J85" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="L85" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="M85" s="31" t="s">
-        <v>55</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
@@ -4967,33 +4874,31 @@
     </row>
     <row r="86">
       <c r="B86" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D86" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J86" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M86" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M86" s="5"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
@@ -5008,33 +4913,31 @@
     </row>
     <row r="87">
       <c r="B87" s="29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I87" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J87" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M87" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
@@ -5049,33 +4952,31 @@
     </row>
     <row r="88">
       <c r="B88" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" s="34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I88" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J88" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M88" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
@@ -5090,33 +4991,31 @@
     </row>
     <row r="89">
       <c r="B89" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G89" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D89" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E89" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>119</v>
-      </c>
       <c r="I89" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J89" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M89" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M89" s="5"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
@@ -5131,33 +5030,31 @@
     </row>
     <row r="90">
       <c r="B90" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E90" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C90" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E90" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="G90" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J90" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M90" s="31" t="s">
-        <v>55</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
@@ -5172,30 +5069,31 @@
     </row>
     <row r="91">
       <c r="B91" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C91" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" s="34" t="s">
+      <c r="G91" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E91" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="I91" s="33" t="s">
-        <v>126</v>
-      </c>
       <c r="J91" s="33" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
@@ -5210,30 +5108,31 @@
     </row>
     <row r="92">
       <c r="B92" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="34" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="G92" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J92" s="33" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
@@ -5248,30 +5147,31 @@
     </row>
     <row r="93">
       <c r="B93" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E93" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="G93" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I93" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J93" s="33" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
@@ -5286,30 +5186,31 @@
     </row>
     <row r="94">
       <c r="B94" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E94" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E94" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="G94" s="34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I94" s="33" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J94" s="33" t="s">
-        <v>98</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
@@ -5324,27 +5225,27 @@
     </row>
     <row r="95">
       <c r="B95" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D95" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C95" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="E95" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="I95" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J95" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
@@ -5359,24 +5260,24 @@
     </row>
     <row r="96">
       <c r="B96" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E96" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I96" s="33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="J96" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
@@ -5391,19 +5292,19 @@
     </row>
     <row r="97">
       <c r="B97" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E97" s="34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I97" s="33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J97" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M97" s="5"/>
       <c r="O97" s="5"/>
@@ -5421,19 +5322,19 @@
     </row>
     <row r="98">
       <c r="B98" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="E98" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C98" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="I98" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J98" s="33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M98" s="5"/>
       <c r="O98" s="5"/>
@@ -5451,19 +5352,19 @@
     </row>
     <row r="99">
       <c r="B99" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="34" t="s">
-        <v>122</v>
-      </c>
       <c r="I99" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J99" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M99" s="5"/>
       <c r="O99" s="5"/>
@@ -5481,17 +5382,17 @@
     </row>
     <row r="100">
       <c r="B100" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="E100" s="34" t="s">
         <v>123</v>
-      </c>
-      <c r="C100" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>122</v>
       </c>
       <c r="G100" s="5"/>
       <c r="J100" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -5510,15 +5411,15 @@
     </row>
     <row r="101">
       <c r="B101" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O101" s="5"/>
       <c r="P101" s="5"/>
@@ -5535,15 +5436,15 @@
     </row>
     <row r="102">
       <c r="B102" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -5562,15 +5463,15 @@
     </row>
     <row r="103">
       <c r="B103" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -5590,15 +5491,15 @@
     </row>
     <row r="104">
       <c r="B104" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -5618,15 +5519,15 @@
     </row>
     <row r="105">
       <c r="B105" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -5646,15 +5547,15 @@
     </row>
     <row r="106">
       <c r="B106" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -5674,12 +5575,12 @@
     </row>
     <row r="107">
       <c r="B107" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -5699,12 +5600,12 @@
     </row>
     <row r="108">
       <c r="B108" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -5724,12 +5625,12 @@
     </row>
     <row r="109">
       <c r="B109" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -5749,12 +5650,12 @@
     </row>
     <row r="110">
       <c r="B110" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -5769,12 +5670,12 @@
     </row>
     <row r="111">
       <c r="B111" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
@@ -5794,12 +5695,12 @@
     </row>
     <row r="112">
       <c r="B112" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -5819,7 +5720,7 @@
     </row>
     <row r="113">
       <c r="B113" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -5841,7 +5742,7 @@
     </row>
     <row r="114">
       <c r="B114" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -5864,7 +5765,7 @@
     </row>
     <row r="115">
       <c r="B115" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -5887,7 +5788,7 @@
     </row>
     <row r="116">
       <c r="B116" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -5910,7 +5811,7 @@
     </row>
     <row r="117">
       <c r="B117" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -5933,9 +5834,8 @@
     </row>
     <row r="118">
       <c r="B118" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>153</v>
+      </c>
       <c r="F118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -5958,7 +5858,7 @@
     </row>
     <row r="119">
       <c r="B119" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -5983,7 +5883,7 @@
     </row>
     <row r="120">
       <c r="B120" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -6008,7 +5908,7 @@
     </row>
     <row r="121">
       <c r="B121" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -6033,7 +5933,7 @@
     </row>
     <row r="122">
       <c r="B122" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -6057,7 +5957,7 @@
     </row>
     <row r="123">
       <c r="B123" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -6081,7 +5981,7 @@
     </row>
     <row r="124">
       <c r="B124" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -6105,7 +6005,7 @@
     </row>
     <row r="125">
       <c r="B125" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
@@ -6130,7 +6030,7 @@
     </row>
     <row r="126">
       <c r="B126" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -6155,7 +6055,7 @@
     </row>
     <row r="127">
       <c r="B127" s="45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -6180,7 +6080,7 @@
     </row>
     <row r="128">
       <c r="B128" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -6206,7 +6106,7 @@
     </row>
     <row r="129">
       <c r="B129" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -6232,7 +6132,7 @@
     </row>
     <row r="130">
       <c r="B130" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -27419,7 +27319,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{E005D83D-BB95-4D64-AE13-09B252B0E493}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0D786860-9D95-4376-AD7C-FD0439781AD4}" filter="1" showAutoFilter="1">
       <autoFilter ref="#REF!"/>
     </customSheetView>
   </customSheetViews>
@@ -27456,7 +27356,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -27471,23 +27371,23 @@
     </row>
     <row r="2">
       <c r="A2" s="48" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="49">
         <f t="shared" ref="B2:B3" si="1">COUNTA(C2:F2)</f>
         <v>4</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -27499,77 +27399,77 @@
     </row>
     <row r="3">
       <c r="A3" s="48" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B3" s="49">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B4" s="49">
         <f>COUNTA(C4:J4)</f>
         <v>8</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>42</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="49">
         <f>COUNTA(C5:F5)</f>
         <v>4</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
@@ -27581,259 +27481,262 @@
     </row>
     <row r="6">
       <c r="A6" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="56" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y9" s="58"/>
       <c r="Z9" s="58"/>
     </row>
     <row r="10">
       <c r="A10" s="48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*"))/2</f>
-        <v>1</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C10),NULL,$C10)&amp;"*"))/2</f>
+        <v>0.5</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>51</v>
       </c>
+      <c r="D10" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="59" t="s">
-        <v>184</v>
+      <c r="A11" s="48" t="s">
+        <v>187</v>
       </c>
       <c r="B11" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C11),NULL,$C11)&amp;"*"))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="58"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C12),NULL,$C12)&amp;"*"))/2</f>
+      <c r="C12" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Z12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C13),NULL,$C13)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C13),NULL,$C13)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C13),NULL,$C13)&amp;"*"))/2</f>
         <v>1</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="49">
-        <f>SUM(B10:B12)</f>
+      <c r="D13" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="49">
+        <f>SUM(B10:B13)</f>
         <v>2</v>
       </c>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="B14" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" s="60" t="s">
+      <c r="Z14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="C15" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C15),NULL,$C15)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C15),NULL,$C15)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C15),NULL,$C15)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z15" s="5"/>
+      <c r="D15" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C16),NULL,$C16)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="50" t="s">
-        <v>194</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B17" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C17),NULL,$C17)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C18),NULL,$C18)&amp;"*"))/2</f>
+      <c r="D18" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C19),NULL,$C19)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C19),NULL,$C19)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C19),NULL,$C19)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="5"/>
-      <c r="Z18" s="5"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="49">
-        <f>SUM(B15:B18)</f>
+      <c r="Q19" s="5"/>
+      <c r="Z19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="49">
+        <f>SUM(B16:B19)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="5"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="Z20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="C21" s="62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C21),NULL,$C21)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C21),NULL,$C21)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C21),NULL,$C21)&amp;"*"))/2</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="58"/>
-      <c r="Z21" s="5"/>
+      <c r="D21" s="63" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C22),NULL,$C22)&amp;"*"))/2</f>
         <v>2</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="Y22" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="58"/>
+      <c r="S22" s="58"/>
       <c r="Z22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="48" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C23),NULL,$C23)&amp;"*"))/2</f>
+        <v>2</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B24" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C24),NULL,$C24)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
     </row>
     <row r="25">
-      <c r="B25" s="49">
-        <f>SUM(B21:B24)</f>
-        <v>4</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
+      <c r="A25" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C25),NULL,$C25)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C25),NULL,$C25)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C25),NULL,$C25)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
@@ -27843,17 +27746,9 @@
       <c r="Z25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="60" t="s">
-        <v>205</v>
-      </c>
-      <c r="B26" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>182</v>
+      <c r="B26" s="49">
+        <f>SUM(B22:B25)</f>
+        <v>4</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -27866,21 +27761,17 @@
       <c r="Z26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B27" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C27),NULL,$C27)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C27),NULL,$C27)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C27),NULL,$C27)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="51" t="s">
+      <c r="A27" s="60" t="s">
         <v>209</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="61" t="s">
+        <v>183</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -27897,7 +27788,7 @@
         <v>210</v>
       </c>
       <c r="B28" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C28),NULL,$C28)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C28" s="51" t="s">
@@ -27905,6 +27796,9 @@
       </c>
       <c r="D28" s="51" t="s">
         <v>212</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>213</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -27917,9 +27811,18 @@
       <c r="Z28" s="5"/>
     </row>
     <row r="29">
-      <c r="B29" s="49">
-        <f>SUM(B27:B28)</f>
+      <c r="A29" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C29),NULL,$C29)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C29),NULL,$C29)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C29),NULL,$C29)&amp;"*"))/2</f>
         <v>0</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>216</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -27932,9 +27835,9 @@
       <c r="Z29" s="5"/>
     </row>
     <row r="30">
-      <c r="B30" s="51">
-        <f>SUM(B13,B19,B25,B29)</f>
-        <v>6</v>
+      <c r="B30" s="49">
+        <f>SUM(B28:B29)</f>
+        <v>0</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -27947,8 +27850,9 @@
       <c r="Z30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="64" t="s">
-        <v>160</v>
+      <c r="B31" s="51">
+        <f>SUM(B14,B20,B26,B30)</f>
+        <v>6</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -27961,17 +27865,8 @@
       <c r="Z31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="56" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>182</v>
+      <c r="A32" s="64" t="s">
+        <v>161</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -27984,24 +27879,17 @@
       <c r="Z32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C33),NULL,$C33)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C33),NULL,$C33)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C33),NULL,$C33)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>215</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="F33" s="32" t="s">
+      <c r="A33" s="56" t="s">
         <v>217</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>183</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -28018,16 +27906,21 @@
         <v>218</v>
       </c>
       <c r="B34" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="33" t="s">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C34),NULL,$C34)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="E34" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="32" t="s">
+        <v>221</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="T34" s="5"/>
@@ -28040,15 +27933,18 @@
     </row>
     <row r="35">
       <c r="A35" s="38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B35" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C35),NULL,$C35)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="C35" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>224</v>
+      </c>
       <c r="F35" s="38"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -28061,10 +27957,17 @@
       <c r="Z35" s="5"/>
     </row>
     <row r="36">
-      <c r="B36" s="49">
-        <f>SUM(B33)</f>
-        <v>1</v>
-      </c>
+      <c r="A36" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C36),NULL,$C36)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C36),NULL,$C36)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C36),NULL,$C36)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="T36" s="5"/>
@@ -28076,21 +27979,12 @@
       <c r="Z36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>182</v>
+      <c r="B37" s="49">
+        <f>SUM(B34)</f>
+        <v>1</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -28100,33 +27994,17 @@
       <c r="Z37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B38" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C38),NULL,$C38)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C38),NULL,$C38)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C38),NULL,$C38)&amp;"*"))/2</f>
-        <v>9</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>227</v>
+      <c r="A38" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>183</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -28140,18 +28018,33 @@
       <c r="Z38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B39" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*"))/2</f>
+        <v>9</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C39),NULL,$C39)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="7" t="s">
+      <c r="G39" s="7" t="s">
         <v>229</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -28165,18 +28058,18 @@
       <c r="Z39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="38" t="s">
-        <v>230</v>
+      <c r="A40" s="48" t="s">
+        <v>232</v>
       </c>
       <c r="B40" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*"))/2</f>
-        <v>41</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C40),NULL,$C40)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -28190,27 +28083,18 @@
       <c r="Z40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="48" t="s">
-        <v>232</v>
+      <c r="A41" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="B41" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*"))/2</f>
-        <v>1</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C41),NULL,$C41)&amp;"*"))/2</f>
+        <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -28224,21 +28108,28 @@
       <c r="Z41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B42" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B42" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C42),NULL,$C42)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="E42" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="F42" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
+      <c r="G42" s="7" t="s">
+        <v>240</v>
+      </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
@@ -28252,11 +28143,17 @@
     </row>
     <row r="43">
       <c r="A43" s="38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B43" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C43),NULL,$C43)&amp;"*"))/2</f>
         <v>0</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -28273,20 +28170,11 @@
     </row>
     <row r="44">
       <c r="A44" s="38" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="B44" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C44),NULL,$C44)&amp;"*"))/2</f>
         <v>0</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>243</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
@@ -28302,10 +28190,24 @@
       <c r="Z44" s="5"/>
     </row>
     <row r="45">
-      <c r="B45" s="49">
-        <f>SUM(B38:B41)</f>
-        <v>52</v>
-      </c>
+      <c r="A45" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C45),NULL,$C45)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C45),NULL,$C45)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C45),NULL,$C45)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
@@ -28318,19 +28220,12 @@
       <c r="Z45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>182</v>
+      <c r="B46" s="49">
+        <f>SUM(B39:B42)</f>
+        <v>29</v>
       </c>
       <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -28341,20 +28236,19 @@
       <c r="Z46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C47),NULL,$C47)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C47),NULL,$C47)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C47),NULL,$C47)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="R47" s="5"/>
+      <c r="A47" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -28365,18 +28259,18 @@
       <c r="Z47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="38" t="s">
-        <v>237</v>
+      <c r="A48" s="59" t="s">
+        <v>218</v>
       </c>
       <c r="B48" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C48),NULL,$C48)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="C48" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>239</v>
+      <c r="C48" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>250</v>
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
@@ -28390,11 +28284,17 @@
     </row>
     <row r="49">
       <c r="A49" s="38" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B49" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C49),NULL,$C49)&amp;"*"))/2</f>
         <v>0</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>243</v>
       </c>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
@@ -28407,11 +28307,14 @@
       <c r="Z49" s="5"/>
     </row>
     <row r="50">
-      <c r="B50" s="49">
-        <f>SUM(B47)</f>
+      <c r="A50" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C50),NULL,$C50)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C50),NULL,$C50)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C50),NULL,$C50)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -28422,19 +28325,11 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="56" t="s">
-        <v>248</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>182</v>
-      </c>
-      <c r="R51" s="5"/>
+      <c r="B51" s="49">
+        <f>SUM(B48)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5"/>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -28445,30 +28340,17 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C52),NULL,$C52)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C52),NULL,$C52)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C52),NULL,$C52)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="G52" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="H52" s="33" t="s">
-        <v>251</v>
+      <c r="A52" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>183</v>
       </c>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
@@ -28481,39 +28363,30 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="65" t="s">
-        <v>252</v>
+      <c r="A53" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="B53" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="31" t="s">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C53),NULL,$C53)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" s="33" t="s">
         <v>253</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="G53" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="H53" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="F53" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="G53" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H53" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="I53" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>261</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
@@ -28526,38 +28399,40 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B54" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>258</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G54" s="33" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="33" t="s">
         <v>262</v>
       </c>
-      <c r="B54" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C54),NULL,$C54)&amp;"*"))/2</f>
-        <v>2</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="I54" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="E54" s="33" t="s">
+      <c r="J54" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="F54" s="33" t="s">
+      <c r="K54" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="G54" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="H54" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="I54" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
@@ -28570,47 +28445,35 @@
     </row>
     <row r="55">
       <c r="A55" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B55" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*"))/2</f>
+        <v>2</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G55" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="B55" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C55),NULL,$C55)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="33" t="s">
+      <c r="H55" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="E55" s="33" t="s">
+      <c r="I55" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="J55" s="33" t="s">
         <v>273</v>
-      </c>
-      <c r="G55" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="H55" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="I55" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="K55" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="M55" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="N55" s="33" t="s">
-        <v>281</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
@@ -28625,22 +28488,48 @@
     </row>
     <row r="56">
       <c r="A56" s="38" t="s">
-        <v>91</v>
+        <v>274</v>
       </c>
       <c r="B56" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C56),NULL,$C56)&amp;"*"))/2</f>
         <v>1</v>
       </c>
       <c r="C56" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="I56" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J56" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K56" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="L56" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E56" s="33" t="s">
+      <c r="M56" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="J56" s="40"/>
+      <c r="N56" s="33" t="s">
+        <v>285</v>
+      </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
@@ -28653,14 +28542,14 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="65" t="s">
-        <v>285</v>
+      <c r="A57" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="B57" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C57" s="31" t="s">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C57),NULL,$C57)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>286</v>
       </c>
       <c r="D57" s="33" t="s">
@@ -28669,18 +28558,7 @@
       <c r="E57" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="F57" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="G57" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="H57" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="I57" s="33" t="s">
-        <v>292</v>
-      </c>
+      <c r="J57" s="40"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
@@ -28693,15 +28571,33 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="B58" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C58),NULL,$C58)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>55</v>
+      <c r="G58" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="I58" s="33" t="s">
+        <v>296</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
@@ -28716,14 +28612,14 @@
     </row>
     <row r="59">
       <c r="A59" s="38" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B59" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>76</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C59),NULL,$C59)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>56</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -28738,17 +28634,14 @@
     </row>
     <row r="60">
       <c r="A60" s="38" t="s">
-        <v>237</v>
+        <v>298</v>
       </c>
       <c r="B60" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C60),NULL,$C60)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="33" t="s">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -28763,19 +28656,16 @@
     </row>
     <row r="61">
       <c r="A61" s="38" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="B61" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C61),NULL,$C61)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E61" s="33" t="s">
         <v>243</v>
       </c>
       <c r="Q61" s="5"/>
@@ -28790,9 +28680,21 @@
       <c r="Z61" s="5"/>
     </row>
     <row r="62">
-      <c r="B62" s="49">
-        <f>SUM(B52:B59)</f>
-        <v>6</v>
+      <c r="A62" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C62),NULL,$C62)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C62),NULL,$C62)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C62),NULL,$C62)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E62" s="33" t="s">
+        <v>247</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
@@ -28806,9 +28708,9 @@
       <c r="Z62" s="5"/>
     </row>
     <row r="63">
-      <c r="B63" s="33">
-        <f>SUM(B36,B45,B50,B62)</f>
-        <v>59</v>
+      <c r="B63" s="49">
+        <f>SUM(B53:B60)</f>
+        <v>6</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
@@ -28822,8 +28724,9 @@
       <c r="Z63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="55" t="s">
-        <v>165</v>
+      <c r="B64" s="33">
+        <f>SUM(B37,B46,B51,B63)</f>
+        <v>36</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
@@ -28837,50 +28740,8 @@
       <c r="Z64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="62" t="s">
-        <v>295</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>296</v>
-      </c>
-      <c r="D65" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="E65" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="G65" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="H65" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="I65" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="J65" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K65" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="L65" s="62" t="s">
-        <v>305</v>
-      </c>
-      <c r="M65" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="N65" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="O65" s="62" t="s">
-        <v>308</v>
+      <c r="A65" s="55" t="s">
+        <v>166</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
@@ -28894,21 +28755,50 @@
       <c r="Z65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C66),NULL,$C66)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C66),NULL,$C66)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C66),NULL,$C66)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="20" t="s">
+      <c r="A66" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="G66" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="H66" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="I66" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="J66" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="K66" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="L66" s="62" t="s">
         <v>309</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="M66" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="N66" s="62" t="s">
         <v>311</v>
+      </c>
+      <c r="O66" s="62" t="s">
+        <v>312</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
@@ -28923,42 +28813,24 @@
     </row>
     <row r="67">
       <c r="A67" s="20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C67),NULL,$C67)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E67" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F67" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="G67" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="H67" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="I67" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="J67" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="K67" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="L67" s="20" t="s">
-        <v>321</v>
-      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
@@ -28969,32 +28841,41 @@
     </row>
     <row r="68">
       <c r="A68" s="20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C68),NULL,$C68)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C68" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="I68" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="J68" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="K68" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="L68" s="20" t="s">
         <v>325</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="H68" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>328</v>
       </c>
       <c r="T68" s="5"/>
       <c r="U68" s="5"/>
@@ -29005,17 +28886,34 @@
       <c r="Z68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="49">
-        <f>SUM(B66:B68)</f>
+      <c r="A69" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C69),NULL,$C69)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C69),NULL,$C69)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C69),NULL,$C69)&amp;"*"))/2</f>
         <v>0</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
+      <c r="C69" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>330</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="I69" s="20" t="s">
+        <v>332</v>
+      </c>
       <c r="T69" s="5"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
@@ -29025,55 +28923,17 @@
       <c r="Z69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="62" t="s">
-        <v>332</v>
-      </c>
-      <c r="G70" s="62" t="s">
-        <v>333</v>
-      </c>
-      <c r="H70" s="62" t="s">
-        <v>334</v>
-      </c>
-      <c r="I70" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="J70" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="K70" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="L70" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="M70" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="N70" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="O70" s="62" t="s">
-        <v>329</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="49">
+        <f>SUM(B67:B69)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="O70" s="5"/>
       <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
@@ -29083,31 +28943,54 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71">
-      <c r="A71" s="48" t="s">
+      <c r="A71" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D71" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E71" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="F71" s="62" t="s">
+        <v>336</v>
+      </c>
+      <c r="G71" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="H71" s="62" t="s">
+        <v>338</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="J71" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="K71" s="62" t="s">
         <v>341</v>
       </c>
-      <c r="B71" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C71),NULL,$C71)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C71),NULL,$C71)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C71),NULL,$C71)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="19" t="s">
+      <c r="L71" s="62" t="s">
         <v>342</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="M71" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="O71" s="5"/>
+      <c r="N71" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="O71" s="62" t="s">
+        <v>333</v>
+      </c>
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5"/>
@@ -29119,25 +29002,25 @@
     </row>
     <row r="72">
       <c r="A72" s="48" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B72" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*"))/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>15</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C72),NULL,$C72)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>15</v>
+        <v>329</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="F72" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="G72" s="19" t="s">
+      <c r="G72" s="18" t="s">
         <v>347</v>
       </c>
       <c r="O72" s="5"/>
@@ -29157,30 +29040,29 @@
         <v>348</v>
       </c>
       <c r="B73" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*"))/2</f>
-        <v>1</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C73),NULL,$C73)&amp;"*"))/2</f>
+        <v>1.5</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D73" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="F73" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="F73" s="18" t="s">
+      <c r="G73" s="19" t="s">
         <v>351</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>353</v>
       </c>
       <c r="O73" s="5"/>
       <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
       <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
       <c r="W73" s="5"/>
@@ -29190,22 +29072,22 @@
     </row>
     <row r="74">
       <c r="A74" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B74" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C74),NULL,$C74)&amp;"*"))/2</f>
-        <v>3</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="F74" s="19" t="s">
+      <c r="F74" s="18" t="s">
         <v>355</v>
       </c>
       <c r="G74" s="18" t="s">
@@ -29213,21 +29095,6 @@
       </c>
       <c r="H74" s="18" t="s">
         <v>357</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="J74" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="K74" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="L74" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="M74" s="18" t="s">
-        <v>358</v>
       </c>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
@@ -29241,25 +29108,43 @@
     </row>
     <row r="75">
       <c r="A75" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="B75" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*"))/2</f>
+        <v>3</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B75" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C75),NULL,$C75)&amp;"*"))/2</f>
-        <v>2</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="19" t="s">
+      <c r="F75" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="G75" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="F75" s="19" t="s">
+      <c r="H75" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="G75" s="18" t="s">
+      <c r="I75" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="M75" s="18" t="s">
         <v>362</v>
       </c>
       <c r="O75" s="5"/>
@@ -29277,32 +29162,23 @@
         <v>363</v>
       </c>
       <c r="B76" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*"))/2</f>
-        <v>3</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>20</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C76),NULL,$C76)&amp;"*"))/2</f>
+        <v>2</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="F76" s="18" t="s">
+      <c r="F76" s="19" t="s">
         <v>365</v>
       </c>
       <c r="G76" s="18" t="s">
         <v>366</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>368</v>
       </c>
       <c r="O76" s="5"/>
       <c r="P76" s="5"/>
@@ -29316,38 +29192,35 @@
     </row>
     <row r="77">
       <c r="A77" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B77" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*"))/2</f>
+        <v>3</v>
+      </c>
+      <c r="C77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F77" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B77" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C77),NULL,$C77)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="22" t="s">
+      <c r="G77" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="H77" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="G77" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="J77" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="K77" s="22" t="s">
-        <v>371</v>
+      <c r="J77" s="18" t="s">
+        <v>372</v>
       </c>
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
@@ -29361,18 +29234,43 @@
     </row>
     <row r="78">
       <c r="A78" s="48" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B78" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C78),NULL,$C78)&amp;"*"))/2</f>
         <v>1</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="H78" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="J78" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="K78" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="O78" s="5"/>
       <c r="P78" s="5"/>
       <c r="S78" s="5"/>
+      <c r="U78" s="5"/>
       <c r="V78" s="5"/>
       <c r="W78" s="5"/>
       <c r="X78" s="5"/>
@@ -29381,17 +29279,14 @@
     </row>
     <row r="79">
       <c r="A79" s="48" t="s">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="B79" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*"))/2</f>
-        <v>0</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C79),NULL,$C79)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D79" s="40" t="s">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="O79" s="5"/>
       <c r="P79" s="5"/>
@@ -29404,24 +29299,18 @@
     </row>
     <row r="80">
       <c r="A80" s="48" t="s">
-        <v>374</v>
+        <v>42</v>
       </c>
       <c r="B80" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C80),NULL,$C80)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D80" s="40" t="s">
+        <v>377</v>
+      </c>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="S80" s="5"/>
@@ -29432,10 +29321,27 @@
       <c r="Z80" s="5"/>
     </row>
     <row r="81">
+      <c r="A81" s="48" t="s">
+        <v>378</v>
+      </c>
       <c r="B81" s="5">
-        <f>SUM(B71:B80)</f>
-        <v>14.5</v>
-      </c>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C81),NULL,$C81)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C81),NULL,$C81)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C81),NULL,$C81)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
       <c r="S81" s="5"/>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
@@ -29444,22 +29350,10 @@
       <c r="Z81" s="5"/>
     </row>
     <row r="82">
-      <c r="A82" s="60" t="s">
-        <v>375</v>
-      </c>
-      <c r="B82" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>376</v>
-      </c>
-      <c r="D82" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="O82" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="P82" s="5"/>
+      <c r="B82" s="5">
+        <f>SUM(B72:B81)</f>
+        <v>14.5</v>
+      </c>
       <c r="S82" s="5"/>
       <c r="V82" s="5"/>
       <c r="W82" s="5"/>
@@ -29468,25 +29362,22 @@
       <c r="Z82" s="5"/>
     </row>
     <row r="83">
-      <c r="A83" s="59" t="s">
-        <v>377</v>
-      </c>
-      <c r="B83" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C83),NULL,$C83)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C83),NULL,$C83)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C83),NULL,$C83)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="53" t="s">
-        <v>378</v>
-      </c>
-      <c r="D83" s="53" t="s">
+      <c r="A83" s="60" t="s">
         <v>379</v>
       </c>
-      <c r="E83" s="53" t="s">
+      <c r="B83" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="60" t="s">
         <v>380</v>
       </c>
-      <c r="F83" s="53" t="s">
-        <v>381</v>
-      </c>
+      <c r="D83" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="O83" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="P83" s="5"/>
       <c r="S83" s="5"/>
       <c r="V83" s="5"/>
       <c r="W83" s="5"/>
@@ -29496,17 +29387,23 @@
     </row>
     <row r="84">
       <c r="A84" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B84" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C84" s="53" t="s">
         <v>382</v>
       </c>
-      <c r="B84" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C84),NULL,$C84)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="53" t="s">
+      <c r="D84" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="E84" s="53" t="s">
         <v>384</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>385</v>
       </c>
       <c r="S84" s="5"/>
       <c r="V84" s="5"/>
@@ -29517,17 +29414,17 @@
     </row>
     <row r="85">
       <c r="A85" s="59" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B85" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C85),NULL,$C85)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S85" s="5"/>
       <c r="V85" s="5"/>
@@ -29538,23 +29435,19 @@
     </row>
     <row r="86">
       <c r="A86" s="59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B86" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C86),NULL,$C86)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="E86" s="53" t="s">
         <v>391</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
+      <c r="S86" s="5"/>
       <c r="V86" s="5"/>
       <c r="W86" s="5"/>
       <c r="X86" s="5"/>
@@ -29562,13 +29455,24 @@
       <c r="Z86" s="5"/>
     </row>
     <row r="87">
+      <c r="A87" s="59" t="s">
+        <v>392</v>
+      </c>
       <c r="B87" s="5">
-        <f>SUM(B83:B86)</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C87),NULL,$C87)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C87),NULL,$C87)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C87),NULL,$C87)&amp;"*"))/2</f>
         <v>0</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="E87" s="53" t="s">
+        <v>395</v>
       </c>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
       <c r="V87" s="5"/>
       <c r="W87" s="5"/>
       <c r="X87" s="5"/>
@@ -29576,51 +29480,11 @@
       <c r="Z87" s="5"/>
     </row>
     <row r="88">
-      <c r="A88" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="B88" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="D88" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="E88" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="F88" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="G88" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="H88" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="I88" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="J88" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="K88" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="L88" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="M88" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="N88" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="O88" s="60" t="s">
-        <v>329</v>
-      </c>
+      <c r="B88" s="5">
+        <f>SUM(B84:B87)</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="V88" s="5"/>
@@ -29630,50 +29494,51 @@
       <c r="Z88" s="5"/>
     </row>
     <row r="89">
-      <c r="A89" s="48" t="s">
-        <v>393</v>
-      </c>
-      <c r="B89" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C89),NULL,$C89)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C89),NULL,$C89)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C89),NULL,$C89)&amp;"*"))/2</f>
-        <v>2</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="F89" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="G89" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="I89" s="54" t="s">
+      <c r="A89" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="J89" s="54" t="s">
-        <v>396</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="L89" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="M89" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="N89" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="O89" s="5"/>
+      <c r="B89" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="E89" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="F89" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="H89" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="I89" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="J89" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="K89" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="L89" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="M89" s="60" t="s">
+        <v>343</v>
+      </c>
+      <c r="N89" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="O89" s="60" t="s">
+        <v>333</v>
+      </c>
       <c r="P89" s="5"/>
       <c r="Q89" s="5"/>
       <c r="V89" s="5"/>
@@ -29684,40 +29549,51 @@
     </row>
     <row r="90">
       <c r="A90" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B90" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*"))/2</f>
+        <v>2</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G90" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="B90" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C90),NULL,$C90)&amp;"*"))/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D90" s="54" t="s">
+      <c r="H90" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="I90" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="E90" s="54" t="s">
+      <c r="J90" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="F90" s="54" t="s">
+      <c r="K90" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="G90" s="21" t="s">
+      <c r="L90" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="M90" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="H90" s="54" t="s">
-        <v>403</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="J90" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>405</v>
-      </c>
+      <c r="N90" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="O90" s="5"/>
       <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
       <c r="V90" s="5"/>
       <c r="W90" s="5"/>
       <c r="X90" s="5"/>
@@ -29726,46 +29602,37 @@
     </row>
     <row r="91">
       <c r="A91" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="B91" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*"))/2</f>
+        <v>2.5</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="F91" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="G91" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B91" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C91),NULL,$C91)&amp;"*"))/2</f>
-        <v>4</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="21" t="s">
+      <c r="H91" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="F91" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="G91" s="21" t="s">
+      <c r="I91" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="H91" s="21" t="s">
-        <v>408</v>
-      </c>
-      <c r="I91" s="21" t="s">
+      <c r="J91" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="J91" s="21" t="s">
-        <v>410</v>
-      </c>
       <c r="K91" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="L91" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="M91" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="N91" s="21" t="s">
         <v>409</v>
       </c>
       <c r="P91" s="5"/>
@@ -29777,39 +29644,49 @@
     </row>
     <row r="92">
       <c r="A92" s="48" t="s">
+        <v>410</v>
+      </c>
+      <c r="B92" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*"))/2</f>
+        <v>4</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="G92" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="B92" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C92),NULL,$C92)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="21" t="s">
+      <c r="H92" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I92" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="J92" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="K92" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="L92" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="F92" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="I92" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="M92" s="21" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N92" s="21" t="s">
-        <v>420</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="P92" s="5"/>
       <c r="V92" s="5"/>
       <c r="W92" s="5"/>
       <c r="X92" s="5"/>
@@ -29818,24 +29695,39 @@
     </row>
     <row r="93">
       <c r="A93" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="B93" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H93" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B93" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C93),NULL,$C93)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="21" t="s">
+      <c r="I93" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
+      <c r="M93" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="N93" s="21" t="s">
+        <v>424</v>
+      </c>
       <c r="V93" s="5"/>
       <c r="W93" s="5"/>
       <c r="X93" s="5"/>
@@ -29844,15 +29736,24 @@
     </row>
     <row r="94">
       <c r="A94" s="48" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B94" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*"))/2</f>
-        <v>0</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C94),NULL,$C94)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>424</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
       <c r="V94" s="5"/>
       <c r="W94" s="5"/>
       <c r="X94" s="5"/>
@@ -29861,14 +29762,14 @@
     </row>
     <row r="95">
       <c r="A95" s="48" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B95" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C95),NULL,$C95)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="V95" s="5"/>
       <c r="W95" s="5"/>
@@ -29878,20 +29779,15 @@
     </row>
     <row r="96">
       <c r="A96" s="48" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B96" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C96),NULL,$C96)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="K96" s="58"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
-      <c r="O96" s="58"/>
+        <v>430</v>
+      </c>
       <c r="V96" s="5"/>
       <c r="W96" s="5"/>
       <c r="X96" s="5"/>
@@ -29899,49 +29795,21 @@
       <c r="Z96" s="5"/>
     </row>
     <row r="97">
-      <c r="A97" s="59" t="s">
-        <v>429</v>
+      <c r="A97" s="48" t="s">
+        <v>431</v>
       </c>
       <c r="B97" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C97),NULL,$C97)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>430</v>
-      </c>
-      <c r="F97" s="21" t="s">
-        <v>431</v>
-      </c>
-      <c r="G97" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H97" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="I97" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="J97" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="K97" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="L97" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="M97" s="21" t="s">
-        <v>436</v>
-      </c>
-      <c r="O97" s="21" t="s">
-        <v>437</v>
-      </c>
+      <c r="K97" s="58"/>
+      <c r="L97" s="58"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="58"/>
       <c r="V97" s="5"/>
       <c r="W97" s="5"/>
       <c r="X97" s="5"/>
@@ -29950,34 +29818,48 @@
     </row>
     <row r="98">
       <c r="A98" s="59" t="s">
+        <v>433</v>
+      </c>
+      <c r="B98" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="G98" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="H98" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="I98" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="B98" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C98),NULL,$C98)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D98" s="54" t="s">
+      <c r="J98" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="E98" s="54" t="s">
+      <c r="K98" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="L98" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="F98" s="21" t="s">
+      <c r="M98" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="O98" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="G98" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="H98" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="R98" s="5"/>
       <c r="V98" s="5"/>
       <c r="W98" s="5"/>
       <c r="X98" s="5"/>
@@ -29986,30 +29868,34 @@
     </row>
     <row r="99">
       <c r="A99" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="B99" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="F99" s="21" t="s">
         <v>445</v>
-      </c>
-      <c r="B99" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C99),NULL,$C99)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="F99" s="21" t="s">
-        <v>447</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="Q99" s="5"/>
+      <c r="H99" s="21" t="s">
+        <v>447</v>
+      </c>
+      <c r="I99" s="21" t="s">
+        <v>448</v>
+      </c>
       <c r="R99" s="5"/>
-      <c r="T99" s="5"/>
       <c r="V99" s="5"/>
       <c r="W99" s="5"/>
       <c r="X99" s="5"/>
@@ -30017,20 +29903,28 @@
       <c r="Z99" s="5"/>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
+      <c r="A100" s="59" t="s">
+        <v>449</v>
+      </c>
       <c r="B100" s="5">
-        <f>SUM(B89:B99)</f>
-        <v>9.5</v>
-      </c>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C100),NULL,$C100)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C100),NULL,$C100)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C100),NULL,$C100)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>450</v>
+      </c>
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="T100" s="5"/>
@@ -30042,9 +29936,9 @@
     </row>
     <row r="101">
       <c r="A101" s="5"/>
-      <c r="B101" s="21">
-        <f>SUM(B69,B81,B87,B100)</f>
-        <v>24</v>
+      <c r="B101" s="5">
+        <f>SUM(B90:B100)</f>
+        <v>9.5</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
@@ -30065,9 +29959,20 @@
       <c r="Z101" s="5"/>
     </row>
     <row r="102">
-      <c r="A102" s="67" t="s">
-        <v>173</v>
-      </c>
+      <c r="A102" s="5"/>
+      <c r="B102" s="21">
+        <f>SUM(B70,B82,B88,B101)</f>
+        <v>24</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="T102" s="5"/>
@@ -30078,52 +29983,11 @@
       <c r="Z102" s="5"/>
     </row>
     <row r="103">
-      <c r="A103" s="56" t="s">
-        <v>448</v>
-      </c>
-      <c r="B103" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="E103" s="56" t="s">
-        <v>331</v>
-      </c>
-      <c r="F103" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="G103" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="H103" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="I103" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="J103" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="K103" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="L103" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="M103" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="N103" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="O103" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="P103" s="5"/>
+      <c r="A103" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
       <c r="T103" s="5"/>
       <c r="V103" s="5"/>
       <c r="W103" s="5"/>
@@ -30132,40 +29996,53 @@
       <c r="Z103" s="5"/>
     </row>
     <row r="104">
-      <c r="A104" s="38" t="s">
-        <v>449</v>
-      </c>
-      <c r="B104" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C104),NULL,$C104)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C104),NULL,$C104)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C104),NULL,$C104)&amp;"*"))/2</f>
-        <v>2</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="E104" s="31" t="s">
-        <v>451</v>
-      </c>
-      <c r="F104" s="31" t="s">
+      <c r="A104" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="G104" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
+      <c r="B104" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>333</v>
+      </c>
+      <c r="D104" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="E104" s="56" t="s">
+        <v>335</v>
+      </c>
+      <c r="F104" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="G104" s="57" t="s">
+        <v>337</v>
+      </c>
+      <c r="H104" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="I104" s="57" t="s">
+        <v>339</v>
+      </c>
+      <c r="J104" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="K104" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="L104" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="M104" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="N104" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="O104" s="56" t="s">
+        <v>333</v>
+      </c>
       <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
       <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
       <c r="V104" s="5"/>
       <c r="W104" s="5"/>
       <c r="X104" s="5"/>
@@ -30174,29 +30051,26 @@
     </row>
     <row r="105">
       <c r="A105" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B105" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*"))/2</f>
+        <v>2</v>
+      </c>
+      <c r="C105" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="B105" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C105),NULL,$C105)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C105" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D105" s="31" t="s">
+      <c r="E105" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="E105" s="31" t="s">
+      <c r="F105" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="F105" s="31" t="s">
+      <c r="G105" s="31" t="s">
         <v>457</v>
-      </c>
-      <c r="G105" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="H105" s="31" t="s">
-        <v>459</v>
       </c>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -30217,34 +30091,39 @@
       <c r="Z105" s="5"/>
     </row>
     <row r="106">
-      <c r="A106" s="68" t="s">
+      <c r="A106" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="B106" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="E106" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="B106" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C106),NULL,$C106)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E106" s="24" t="s">
+      <c r="F106" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="F106" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="G106" s="24" t="s">
+      <c r="G106" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="H106" s="24" t="s">
+      <c r="H106" s="31" t="s">
         <v>463</v>
       </c>
-      <c r="I106" s="24" t="s">
-        <v>464</v>
-      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
       <c r="T106" s="5"/>
@@ -30256,13 +30135,34 @@
       <c r="Z106" s="5"/>
     </row>
     <row r="107">
+      <c r="A107" s="68" t="s">
+        <v>464</v>
+      </c>
       <c r="B107" s="5">
-        <f>SUM(B104:B106)</f>
-        <v>4</v>
-      </c>
-      <c r="J107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($D107),NULL,$D107)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($D107),NULL,$D107)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($D107),NULL,$D107)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="I107" s="24" t="s">
+        <v>469</v>
+      </c>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
       <c r="T107" s="5"/>
@@ -30274,51 +30174,13 @@
       <c r="Z107" s="5"/>
     </row>
     <row r="108">
-      <c r="A108" s="62" t="s">
-        <v>465</v>
-      </c>
-      <c r="B108" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="62" t="s">
-        <v>330</v>
-      </c>
-      <c r="E108" s="62" t="s">
-        <v>331</v>
-      </c>
-      <c r="F108" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="G108" s="63" t="s">
-        <v>333</v>
-      </c>
-      <c r="H108" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="I108" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="J108" s="62" t="s">
-        <v>336</v>
-      </c>
-      <c r="K108" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="L108" s="62" t="s">
-        <v>338</v>
-      </c>
-      <c r="M108" s="62" t="s">
-        <v>339</v>
-      </c>
-      <c r="N108" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="O108" s="62" t="s">
-        <v>329</v>
-      </c>
+      <c r="B108" s="5">
+        <f>SUM(B105:B107)</f>
+        <v>3</v>
+      </c>
+      <c r="J108" s="5"/>
+      <c r="M108" s="5"/>
+      <c r="N108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
       <c r="T108" s="5"/>
@@ -30330,37 +30192,53 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109">
-      <c r="A109" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="B109" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C109),NULL,$C109)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C109),NULL,$C109)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C109),NULL,$C109)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>467</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="H109" s="23" t="s">
+      <c r="A109" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="I109" s="23" t="s">
-        <v>471</v>
+      <c r="B109" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="62" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="E109" s="62" t="s">
+        <v>335</v>
+      </c>
+      <c r="F109" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="G109" s="63" t="s">
+        <v>337</v>
+      </c>
+      <c r="H109" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="I109" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="J109" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="K109" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="L109" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="M109" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="N109" s="62" t="s">
+        <v>344</v>
+      </c>
+      <c r="O109" s="62" t="s">
+        <v>333</v>
       </c>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
       <c r="T109" s="5"/>
       <c r="U109" s="5"/>
       <c r="V109" s="5"/>
@@ -30371,23 +30249,32 @@
     </row>
     <row r="110">
       <c r="A110" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>472</v>
-      </c>
-      <c r="B110" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C110),NULL,$C110)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="23" t="s">
-        <v>34</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>473</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="I110" s="23" t="s">
+        <v>476</v>
       </c>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
@@ -30402,17 +30289,27 @@
     </row>
     <row r="111">
       <c r="A111" s="38" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B111" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>475</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C111),NULL,$C111)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C111" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="23" t="s">
+        <v>478</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>478</v>
       </c>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
       <c r="T111" s="5"/>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
@@ -30422,31 +30319,18 @@
       <c r="Z111" s="5"/>
     </row>
     <row r="112">
-      <c r="A112" s="48" t="s">
-        <v>476</v>
+      <c r="A112" s="38" t="s">
+        <v>479</v>
       </c>
       <c r="B112" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C112" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D112" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E112" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>30</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C112),NULL,$C112)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>480</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
       <c r="T112" s="5"/>
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
@@ -30457,26 +30341,26 @@
     </row>
     <row r="113">
       <c r="A113" s="48" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B113" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*"))/2</f>
-        <v>0.5</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C113),NULL,$C113)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>478</v>
+        <v>30</v>
       </c>
       <c r="E113" s="23" t="s">
-        <v>479</v>
+        <v>30</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>480</v>
+        <v>30</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>481</v>
+        <v>30</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
@@ -30494,25 +30378,24 @@
         <v>482</v>
       </c>
       <c r="B114" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*"))/2</f>
-        <v>1</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C114),NULL,$C114)&amp;"*"))/2</f>
+        <v>0.5</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="F114" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="G114" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="O114" s="5"/>
+      <c r="E114" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>486</v>
+      </c>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="5"/>
@@ -30525,16 +30408,29 @@
       <c r="Z114" s="5"/>
     </row>
     <row r="115">
-      <c r="A115" s="38" t="s">
-        <v>484</v>
+      <c r="A115" s="48" t="s">
+        <v>487</v>
       </c>
       <c r="B115" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C115),NULL,$C115)&amp;"*"))/2</f>
         <v>1</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="F115" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>488</v>
+      </c>
+      <c r="O115" s="5"/>
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5"/>
@@ -30548,20 +30444,14 @@
     </row>
     <row r="116">
       <c r="A116" s="38" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B116" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*"))/2</f>
-        <v>0.5</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C116),NULL,$C116)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="E116" s="23" t="s">
-        <v>487</v>
+        <v>38</v>
       </c>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
@@ -30576,20 +30466,20 @@
     </row>
     <row r="117">
       <c r="A117" s="38" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B117" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C117),NULL,$C117)&amp;"*"))/2</f>
         <v>0.5</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
@@ -30604,20 +30494,20 @@
     </row>
     <row r="118">
       <c r="A118" s="38" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B118" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C118),NULL,$C118)&amp;"*"))/2</f>
         <v>0.5</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
@@ -30631,12 +30521,22 @@
       <c r="Z118" s="5"/>
     </row>
     <row r="119">
+      <c r="A119" s="38" t="s">
+        <v>496</v>
+      </c>
       <c r="B119" s="5">
-        <f>SUM(B109:B118)</f>
-        <v>7</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C119),NULL,$C119)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C119),NULL,$C119)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C119),NULL,$C119)&amp;"*"))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>497</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>498</v>
+      </c>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5"/>
@@ -30649,19 +30549,13 @@
       <c r="Z119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="B120" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D120" s="63" t="s">
-        <v>494</v>
-      </c>
+      <c r="B120" s="5">
+        <f>SUM(B110:B119)</f>
+        <v>7</v>
+      </c>
+      <c r="O120" s="5"/>
       <c r="P120" s="5"/>
+      <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="5"/>
       <c r="T120" s="5"/>
@@ -30673,30 +30567,18 @@
       <c r="Z120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="38" t="s">
-        <v>495</v>
-      </c>
-      <c r="B121" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C121),NULL,$C121)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C121),NULL,$C121)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C121),NULL,$C121)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>497</v>
-      </c>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5"/>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
+      <c r="A121" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="62" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="63" t="s">
+        <v>499</v>
+      </c>
       <c r="P121" s="5"/>
       <c r="R121" s="5"/>
       <c r="S121" s="5"/>
@@ -30709,15 +30591,19 @@
       <c r="Z121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="69" t="s">
-        <v>498</v>
+      <c r="A122" s="38" t="s">
+        <v>500</v>
       </c>
       <c r="B122" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C122),NULL,$C122)&amp;"*"))/2</f>
+        <v>1</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>501</v>
+      </c>
+      <c r="D122" s="34" t="s">
+        <v>502</v>
+      </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
@@ -30728,6 +30614,8 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="5"/>
       <c r="R122" s="5"/>
       <c r="S122" s="5"/>
       <c r="T122" s="5"/>
@@ -30739,16 +30627,14 @@
       <c r="Z122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="38" t="s">
-        <v>499</v>
+      <c r="A123" s="69" t="s">
+        <v>503</v>
       </c>
       <c r="B123" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*"))/2</f>
-        <v>1</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>83</v>
-      </c>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C123),NULL,$C123)&amp;"*"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -30760,9 +30646,6 @@
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
       <c r="S123" s="5"/>
       <c r="T123" s="5"/>
@@ -30775,18 +30658,16 @@
     </row>
     <row r="124">
       <c r="A124" s="38" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B124" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*"))/2</f>
-        <v>2</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C124),NULL,$C124)&amp;"*"))/2</f>
+        <v>1</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>501</v>
-      </c>
-      <c r="D124" s="34" t="s">
-        <v>502</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D124" s="5"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
@@ -30812,21 +30693,28 @@
     </row>
     <row r="125">
       <c r="A125" s="38" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B125" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C125),NULL,$C125)&amp;"*"))/2</f>
         <v>2</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D125" s="34" t="s">
-        <v>504</v>
-      </c>
-      <c r="E125" s="34" t="s">
-        <v>505</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
@@ -30842,28 +30730,21 @@
     </row>
     <row r="126">
       <c r="A126" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B126" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*"))/2</f>
-        <v>1.5</v>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C126),NULL,$C126)&amp;"*"))/2</f>
+        <v>2</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>74</v>
+        <v>508</v>
       </c>
       <c r="D126" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="5"/>
+        <v>509</v>
+      </c>
+      <c r="E126" s="34" t="s">
+        <v>510</v>
+      </c>
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
@@ -30878,9 +30759,18 @@
       <c r="Z126" s="5"/>
     </row>
     <row r="127">
-      <c r="B127" s="49">
-        <f>SUM(B121:B126)</f>
-        <v>7.5</v>
+      <c r="A127" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B127" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C127),NULL,$C127)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C127),NULL,$C127)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C127),NULL,$C127)&amp;"*"))/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
@@ -30906,18 +30796,21 @@
       <c r="Z127" s="5"/>
     </row>
     <row r="128">
-      <c r="A128" s="60" t="s">
-        <v>507</v>
-      </c>
-      <c r="B128" s="60" t="s">
-        <v>180</v>
-      </c>
-      <c r="C128" s="60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D128" s="61" t="s">
-        <v>494</v>
-      </c>
+      <c r="B128" s="49">
+        <f>SUM(B122:B127)</f>
+        <v>7.5</v>
+      </c>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
+      <c r="N128" s="5"/>
+      <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
@@ -30931,23 +30824,18 @@
       <c r="Z128" s="5"/>
     </row>
     <row r="129">
-      <c r="A129" s="65" t="s">
-        <v>508</v>
-      </c>
-      <c r="B129" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C129),NULL,$C129)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C129),NULL,$C129)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C129),NULL,$C129)&amp;"*"))/2</f>
-        <v>0</v>
-      </c>
-      <c r="C129" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="D129" s="31" t="s">
-        <v>510</v>
-      </c>
-      <c r="E129" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="O129" s="5"/>
+      <c r="A129" s="60" t="s">
+        <v>512</v>
+      </c>
+      <c r="B129" s="60" t="s">
+        <v>181</v>
+      </c>
+      <c r="C129" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D129" s="61" t="s">
+        <v>499</v>
+      </c>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
@@ -30962,26 +30850,21 @@
     </row>
     <row r="130">
       <c r="A130" s="65" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B130" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C130),NULL,$C130)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C130" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
+        <v>514</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E130" s="31" t="s">
+        <v>516</v>
+      </c>
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
@@ -30997,18 +30880,16 @@
     </row>
     <row r="131">
       <c r="A131" s="65" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B131" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C131),NULL,$C131)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>515</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>516</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
@@ -31019,6 +30900,7 @@
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
+      <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
@@ -31033,16 +30915,18 @@
     </row>
     <row r="132">
       <c r="A132" s="65" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B132" s="5">
-        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*") + COUNTIF(Schedule!$B$62:$H$73,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*"))/2</f>
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C132),NULL,$C132)&amp;"*"))/2</f>
         <v>0</v>
       </c>
       <c r="C132" s="31" t="s">
-        <v>518</v>
-      </c>
-      <c r="D132" s="5"/>
+        <v>520</v>
+      </c>
+      <c r="D132" s="31" t="s">
+        <v>521</v>
+      </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
@@ -31066,10 +30950,28 @@
       <c r="Z132" s="5"/>
     </row>
     <row r="133">
-      <c r="B133" s="49">
-        <f>SUM(B129:B132)</f>
+      <c r="A133" s="65" t="s">
+        <v>522</v>
+      </c>
+      <c r="B133" s="5">
+        <f> (COUNTIF(Schedule!$B$36:$H$45,"*"&amp;IF(ISBLANK($C133),NULL,$C133)&amp;"*") + COUNTIF(Schedule!$B$49:$H$58,"*"&amp;IF(ISBLANK($C133),NULL,$C133)&amp;"*") + COUNTIF(Schedule!$C$62:$H$73,"*"&amp;IF(ISBLANK($C133),NULL,$C133)&amp;"*"))/2</f>
         <v>0</v>
       </c>
+      <c r="C133" s="31" t="s">
+        <v>523</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="5"/>
+      <c r="N133" s="5"/>
+      <c r="P133" s="5"/>
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
       <c r="S133" s="5"/>
@@ -31082,9 +30984,9 @@
       <c r="Z133" s="5"/>
     </row>
     <row r="134">
-      <c r="B134" s="23">
-        <f>SUM(B107,B119,B127,B133)</f>
-        <v>18.5</v>
+      <c r="B134" s="49">
+        <f>SUM(B130:B133)</f>
+        <v>0</v>
       </c>
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
@@ -31098,21 +31000,10 @@
       <c r="Z134" s="5"/>
     </row>
     <row r="135">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="17"/>
-      <c r="K135" s="17"/>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
+      <c r="B135" s="23">
+        <f>SUM(B108,B120,B128,B134)</f>
+        <v>17.5</v>
+      </c>
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
       <c r="S135" s="5"/>
@@ -31125,13 +31016,21 @@
       <c r="Z135" s="5"/>
     </row>
     <row r="136">
-      <c r="A136" s="70" t="s">
-        <v>519</v>
-      </c>
-      <c r="B136" s="71">
-        <f>SUM(B30,B63,B101,B134)</f>
-        <v>107.5</v>
-      </c>
+      <c r="A136" s="17"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
       <c r="S136" s="5"/>
@@ -31144,17 +31043,13 @@
       <c r="Z136" s="5"/>
     </row>
     <row r="137">
-      <c r="A137" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="B137" s="72">
-        <f>24*7-B136</f>
-        <v>60.5</v>
-      </c>
-      <c r="C137" s="38"/>
-      <c r="D137" s="72"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="72"/>
+      <c r="A137" s="70" t="s">
+        <v>524</v>
+      </c>
+      <c r="B137" s="71">
+        <f>SUM(B31,B64,B102,B135)</f>
+        <v>83.5</v>
+      </c>
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
       <c r="S137" s="5"/>
@@ -31168,11 +31063,11 @@
     </row>
     <row r="138">
       <c r="A138" s="38" t="s">
-        <v>521</v>
-      </c>
-      <c r="B138" s="73">
-        <f>B137/7</f>
-        <v>8.642857143</v>
+        <v>525</v>
+      </c>
+      <c r="B138" s="72">
+        <f>24*7-B137</f>
+        <v>84.5</v>
       </c>
       <c r="C138" s="38"/>
       <c r="D138" s="72"/>
@@ -31191,11 +31086,11 @@
     </row>
     <row r="139">
       <c r="A139" s="38" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B139" s="73">
-        <f>MAX(0,B138 - 9.5)</f>
-        <v>0</v>
+        <f>B138/7</f>
+        <v>12.07142857</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="72"/>
@@ -31213,22 +31108,17 @@
       <c r="Z139" s="5"/>
     </row>
     <row r="140">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="5"/>
+      <c r="A140" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="B140" s="73">
+        <f>MAX(0,B139 - 9.5)</f>
+        <v>2.571428571</v>
+      </c>
+      <c r="C140" s="38"/>
+      <c r="D140" s="72"/>
+      <c r="I140" s="38"/>
+      <c r="J140" s="72"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
       <c r="S140" s="5"/>
@@ -31241,9 +31131,21 @@
       <c r="Z140" s="5"/>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
-        <v>523</v>
-      </c>
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
@@ -31257,13 +31159,9 @@
       <c r="Z141" s="5"/>
     </row>
     <row r="142">
-      <c r="A142" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="B142" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="O142" s="5"/>
+      <c r="A142" s="4" t="s">
+        <v>528</v>
+      </c>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
@@ -31278,10 +31176,10 @@
     </row>
     <row r="143">
       <c r="A143" s="74" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
@@ -31297,14 +31195,11 @@
       <c r="Z143" s="5"/>
     </row>
     <row r="144">
-      <c r="A144" s="75" t="s">
-        <v>527</v>
+      <c r="A144" s="74" t="s">
+        <v>531</v>
       </c>
       <c r="B144" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="C144" s="14" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
@@ -31320,11 +31215,14 @@
       <c r="Z144" s="5"/>
     </row>
     <row r="145">
-      <c r="A145" s="74" t="s">
-        <v>529</v>
+      <c r="A145" s="75" t="s">
+        <v>532</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>525</v>
+        <v>530</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>533</v>
       </c>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
@@ -31341,10 +31239,10 @@
     </row>
     <row r="146">
       <c r="A146" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="B146" s="48" t="s">
         <v>530</v>
-      </c>
-      <c r="B146" s="48" t="s">
-        <v>525</v>
       </c>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
@@ -31361,10 +31259,10 @@
     </row>
     <row r="147">
       <c r="A147" s="74" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
@@ -31381,11 +31279,12 @@
     </row>
     <row r="148">
       <c r="A148" s="74" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>525</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
@@ -31400,11 +31299,12 @@
     </row>
     <row r="149">
       <c r="A149" s="74" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>525</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
       <c r="S149" s="5"/>
@@ -31418,10 +31318,10 @@
     </row>
     <row r="150">
       <c r="A150" s="74" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
@@ -31436,12 +31336,11 @@
     </row>
     <row r="151">
       <c r="A151" s="74" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="P151" s="58"/>
+        <v>530</v>
+      </c>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
       <c r="S151" s="5"/>
@@ -31454,15 +31353,15 @@
       <c r="Z151" s="5"/>
     </row>
     <row r="152">
-      <c r="A152" s="75" t="s">
-        <v>536</v>
+      <c r="A152" s="74" t="s">
+        <v>540</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>537</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="P152" s="58"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
       <c r="S152" s="5"/>
       <c r="T152" s="5"/>
       <c r="U152" s="5"/>
@@ -31473,9 +31372,16 @@
       <c r="Z152" s="5"/>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="s">
-        <v>538</v>
-      </c>
+      <c r="A153" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="B153" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="S153" s="5"/>
       <c r="T153" s="5"/>
       <c r="U153" s="5"/>
       <c r="V153" s="5"/>
@@ -31485,26 +31391,10 @@
       <c r="Z153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
-      <c r="G154" s="5"/>
-      <c r="H154" s="5"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="5"/>
-      <c r="M154" s="5"/>
-      <c r="N154" s="5"/>
-      <c r="O154" s="5"/>
-      <c r="P154" s="5"/>
-      <c r="Q154" s="5"/>
-      <c r="R154" s="5"/>
+      <c r="A154" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="T154" s="5"/>
       <c r="U154" s="5"/>
       <c r="V154" s="5"/>
       <c r="W154" s="5"/>
@@ -31513,8 +31403,27 @@
       <c r="Z154" s="5"/>
     </row>
     <row r="155">
+      <c r="A155" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="5"/>
+      <c r="D155" s="5"/>
+      <c r="E155" s="5"/>
+      <c r="F155" s="5"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="5"/>
+      <c r="N155" s="5"/>
+      <c r="O155" s="5"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
+      <c r="U155" s="5"/>
       <c r="V155" s="5"/>
       <c r="W155" s="5"/>
       <c r="X155" s="5"/>
@@ -31522,30 +31431,8 @@
       <c r="Z155" s="5"/>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B156" s="5"/>
-      <c r="C156" s="5"/>
-      <c r="D156" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="5"/>
-      <c r="M156" s="5"/>
-      <c r="N156" s="5"/>
-      <c r="O156" s="5"/>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
       <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
       <c r="V156" s="5"/>
       <c r="W156" s="5"/>
       <c r="X156" s="5"/>
@@ -31553,47 +31440,28 @@
       <c r="Z156" s="5"/>
     </row>
     <row r="157">
-      <c r="A157" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="C157" s="77" t="s">
-        <v>542</v>
-      </c>
-      <c r="D157" s="78" t="s">
-        <v>543</v>
-      </c>
-      <c r="E157" s="79" t="s">
-        <v>544</v>
-      </c>
-      <c r="F157" s="80" t="s">
+      <c r="A157" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G157" s="81" t="s">
-        <v>546</v>
-      </c>
-      <c r="H157" s="82" t="s">
-        <v>547</v>
-      </c>
-      <c r="I157" s="83" t="s">
-        <v>548</v>
-      </c>
-      <c r="J157" s="84" t="s">
-        <v>549</v>
-      </c>
-      <c r="K157" s="85" t="s">
-        <v>550</v>
-      </c>
-      <c r="M157" s="14" t="s">
-        <v>551</v>
-      </c>
-      <c r="N157" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="O157" s="14" t="s">
-        <v>553</v>
-      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+      <c r="D157" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="5"/>
+      <c r="N157" s="5"/>
+      <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
+      <c r="R157" s="5"/>
       <c r="S157" s="5"/>
       <c r="T157" s="5"/>
       <c r="V157" s="5"/>
@@ -31603,47 +31471,48 @@
       <c r="Z157" s="5"/>
     </row>
     <row r="158">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C158" s="77" t="s">
+        <v>547</v>
+      </c>
+      <c r="D158" s="78" t="s">
+        <v>548</v>
+      </c>
+      <c r="E158" s="79" t="s">
+        <v>549</v>
+      </c>
+      <c r="F158" s="80" t="s">
+        <v>550</v>
+      </c>
+      <c r="G158" s="81" t="s">
+        <v>551</v>
+      </c>
+      <c r="H158" s="82" t="s">
+        <v>552</v>
+      </c>
+      <c r="I158" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="J158" s="84" t="s">
         <v>554</v>
       </c>
-      <c r="C158" s="21" t="s">
+      <c r="K158" s="85" t="s">
         <v>555</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="M158" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E158" s="21" t="s">
-        <v>422</v>
-      </c>
-      <c r="F158" s="21" t="s">
+      <c r="N158" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="G158" s="21" t="s">
+      <c r="O158" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="H158" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="I158" s="21" t="s">
-        <v>559</v>
-      </c>
-      <c r="J158" s="21" t="s">
-        <v>560</v>
-      </c>
-      <c r="K158" s="21" t="s">
-        <v>561</v>
-      </c>
-      <c r="M158" s="21" t="s">
-        <v>562</v>
-      </c>
-      <c r="N158" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="O158" s="21" t="s">
-        <v>564</v>
       </c>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
+      <c r="S158" s="5"/>
       <c r="T158" s="5"/>
       <c r="V158" s="5"/>
       <c r="W158" s="5"/>
@@ -31653,46 +31522,47 @@
     </row>
     <row r="159">
       <c r="A159" s="21" t="s">
-        <v>44</v>
+        <v>559</v>
       </c>
       <c r="C159" s="21" t="s">
+        <v>560</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="E159" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="F159" s="21" t="s">
+        <v>562</v>
+      </c>
+      <c r="G159" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="H159" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="I159" s="21" t="s">
+        <v>564</v>
+      </c>
+      <c r="J159" s="21" t="s">
         <v>565</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="K159" s="21" t="s">
         <v>566</v>
       </c>
-      <c r="E159" s="21" t="s">
+      <c r="M159" s="21" t="s">
         <v>567</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="N159" s="21" t="s">
         <v>568</v>
       </c>
-      <c r="G159" s="21" t="s">
+      <c r="O159" s="21" t="s">
         <v>569</v>
-      </c>
-      <c r="H159" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="I159" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="J159" s="21" t="s">
-        <v>572</v>
-      </c>
-      <c r="K159" s="21" t="s">
-        <v>573</v>
-      </c>
-      <c r="M159" s="21" t="s">
-        <v>574</v>
-      </c>
-      <c r="N159" s="21" t="s">
-        <v>575</v>
-      </c>
-      <c r="O159" s="21" t="s">
-        <v>576</v>
       </c>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
+      <c r="T159" s="5"/>
       <c r="V159" s="5"/>
       <c r="W159" s="5"/>
       <c r="X159" s="5"/>
@@ -31701,44 +31571,46 @@
     </row>
     <row r="160">
       <c r="A160" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="E160" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="F160" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="G160" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="H160" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I160" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J160" s="21" t="s">
         <v>577</v>
       </c>
-      <c r="C160" s="21" t="s">
+      <c r="K160" s="21" t="s">
         <v>578</v>
       </c>
-      <c r="D160" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E160" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F160" s="21" t="s">
+      <c r="M160" s="21" t="s">
         <v>579</v>
       </c>
-      <c r="G160" s="21" t="s">
+      <c r="N160" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="H160" s="21" t="s">
+      <c r="O160" s="21" t="s">
         <v>581</v>
-      </c>
-      <c r="J160" s="21" t="s">
-        <v>582</v>
-      </c>
-      <c r="K160" s="21" t="s">
-        <v>583</v>
-      </c>
-      <c r="M160" s="21" t="s">
-        <v>584</v>
-      </c>
-      <c r="N160" s="21" t="s">
-        <v>585</v>
-      </c>
-      <c r="O160" s="21" t="s">
-        <v>586</v>
       </c>
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
-      <c r="R160" s="5"/>
       <c r="V160" s="5"/>
       <c r="W160" s="5"/>
       <c r="X160" s="5"/>
@@ -31746,40 +31618,45 @@
       <c r="Z160" s="5"/>
     </row>
     <row r="161">
+      <c r="A161" s="21" t="s">
+        <v>582</v>
+      </c>
       <c r="C161" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="F161" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="G161" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="H161" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="J161" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="E161" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F161" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="G161" s="21" t="s">
+      <c r="K161" s="21" t="s">
         <v>588</v>
       </c>
-      <c r="H161" s="21" t="s">
+      <c r="M161" s="21" t="s">
         <v>589</v>
       </c>
-      <c r="J161" s="21" t="s">
+      <c r="N161" s="21" t="s">
         <v>590</v>
       </c>
-      <c r="K161" s="21" t="s">
+      <c r="O161" s="21" t="s">
         <v>591</v>
-      </c>
-      <c r="M161" s="21" t="s">
-        <v>570</v>
-      </c>
-      <c r="N161" s="21" t="s">
-        <v>592</v>
-      </c>
-      <c r="O161" s="21" t="s">
-        <v>593</v>
       </c>
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
-      <c r="S161" s="5"/>
       <c r="V161" s="5"/>
       <c r="W161" s="5"/>
       <c r="X161" s="5"/>
@@ -31788,38 +31665,39 @@
     </row>
     <row r="162">
       <c r="C162" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F162" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="G162" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="H162" s="21" t="s">
         <v>594</v>
       </c>
-      <c r="E162" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="F162" s="21" t="s">
+      <c r="J162" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="G162" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="J162" s="54" t="s">
+      <c r="K162" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="K162" s="21" t="s">
+      <c r="M162" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="N162" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="M162" s="21" t="s">
+      <c r="O162" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="N162" s="21" t="s">
-        <v>599</v>
-      </c>
-      <c r="O162" s="21" t="s">
-        <v>600</v>
       </c>
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
       <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5"/>
       <c r="V162" s="5"/>
       <c r="W162" s="5"/>
       <c r="X162" s="5"/>
@@ -31828,33 +31706,40 @@
     </row>
     <row r="163">
       <c r="C163" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="F163" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G163" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J163" s="54" t="s">
         <v>601</v>
       </c>
-      <c r="E163" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F163" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="G163" s="21" t="s">
+      <c r="K163" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="J163" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="K163" s="21" t="s">
+      <c r="M163" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="M163" s="21" t="s">
+      <c r="N163" s="21" t="s">
         <v>604</v>
       </c>
       <c r="O163" s="21" t="s">
         <v>605</v>
       </c>
+      <c r="P163" s="5"/>
+      <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
       <c r="S163" s="5"/>
       <c r="T163" s="5"/>
       <c r="U163" s="5"/>
+      <c r="V163" s="5"/>
+      <c r="W163" s="5"/>
       <c r="X163" s="5"/>
       <c r="Y163" s="5"/>
       <c r="Z163" s="5"/>
@@ -31864,25 +31749,25 @@
         <v>606</v>
       </c>
       <c r="E164" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="F164" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="G164" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="F164" s="21" t="s">
+      <c r="J164" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="K164" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="G164" s="21" t="s">
+      <c r="M164" s="21" t="s">
         <v>609</v>
       </c>
-      <c r="J164" s="21" t="s">
+      <c r="O164" s="21" t="s">
         <v>610</v>
-      </c>
-      <c r="K164" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="M164" s="21" t="s">
-        <v>612</v>
-      </c>
-      <c r="O164" s="21" t="s">
-        <v>613</v>
       </c>
       <c r="R164" s="5"/>
       <c r="S164" s="5"/>
@@ -31894,26 +31779,28 @@
     </row>
     <row r="165">
       <c r="C165" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="F165" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="G165" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="E165" s="21" t="s">
+      <c r="J165" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="K165" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="G165" s="21" t="s">
+      <c r="M165" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="H165" s="5"/>
-      <c r="J165" s="21" t="s">
+      <c r="O165" s="21" t="s">
         <v>618</v>
-      </c>
-      <c r="K165" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="M165" s="21" t="s">
-        <v>620</v>
       </c>
       <c r="R165" s="5"/>
       <c r="S165" s="5"/>
@@ -31925,23 +31812,26 @@
     </row>
     <row r="166">
       <c r="C166" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="F166" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="E166" s="21" t="s">
+      <c r="G166" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="G166" s="21" t="s">
-        <v>623</v>
       </c>
       <c r="H166" s="5"/>
       <c r="J166" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="K166" s="21" t="s">
         <v>624</v>
       </c>
-      <c r="K166" s="21" t="s">
+      <c r="M166" s="21" t="s">
         <v>625</v>
-      </c>
-      <c r="M166" s="21" t="s">
-        <v>626</v>
       </c>
       <c r="R166" s="5"/>
       <c r="S166" s="5"/>
@@ -31953,17 +31843,17 @@
     </row>
     <row r="167">
       <c r="C167" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E167" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="E167" s="21" t="s">
+      <c r="G167" s="21" t="s">
         <v>628</v>
-      </c>
-      <c r="G167" s="21" t="s">
-        <v>629</v>
       </c>
       <c r="H167" s="5"/>
       <c r="J167" s="21" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K167" s="21" t="s">
         <v>630</v>
@@ -31971,13 +31861,10 @@
       <c r="M167" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="N167" s="5"/>
       <c r="R167" s="5"/>
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
       <c r="U167" s="5"/>
-      <c r="V167" s="5"/>
-      <c r="W167" s="5"/>
       <c r="X167" s="5"/>
       <c r="Y167" s="5"/>
       <c r="Z167" s="5"/>
@@ -31986,20 +31873,24 @@
       <c r="C168" s="21" t="s">
         <v>632</v>
       </c>
+      <c r="E168" s="21" t="s">
+        <v>633</v>
+      </c>
       <c r="G168" s="21" t="s">
-        <v>408</v>
+        <v>634</v>
       </c>
       <c r="H168" s="5"/>
       <c r="J168" s="21" t="s">
-        <v>633</v>
+        <v>567</v>
       </c>
       <c r="K168" s="21" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="M168" s="21" t="s">
-        <v>592</v>
+        <v>636</v>
       </c>
       <c r="N168" s="5"/>
+      <c r="R168" s="5"/>
       <c r="S168" s="5"/>
       <c r="T168" s="5"/>
       <c r="U168" s="5"/>
@@ -32011,19 +31902,20 @@
     </row>
     <row r="169">
       <c r="C169" s="21" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G169" s="21" t="s">
-        <v>636</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="H169" s="5"/>
       <c r="J169" s="21" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K169" s="21" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M169" s="21" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="N169" s="5"/>
       <c r="S169" s="5"/>
@@ -32042,7 +31934,6 @@
       <c r="G170" s="21" t="s">
         <v>641</v>
       </c>
-      <c r="H170" s="5"/>
       <c r="J170" s="21" t="s">
         <v>642</v>
       </c>
@@ -32050,7 +31941,7 @@
         <v>643</v>
       </c>
       <c r="M170" s="21" t="s">
-        <v>45</v>
+        <v>644</v>
       </c>
       <c r="N170" s="5"/>
       <c r="S170" s="5"/>
@@ -32063,20 +31954,21 @@
       <c r="Z170" s="5"/>
     </row>
     <row r="171">
-      <c r="A171" s="5"/>
       <c r="C171" s="21" t="s">
-        <v>644</v>
-      </c>
-      <c r="F171" s="5"/>
+        <v>645</v>
+      </c>
+      <c r="G171" s="21" t="s">
+        <v>646</v>
+      </c>
       <c r="H171" s="5"/>
       <c r="J171" s="21" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="K171" s="21" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M171" s="21" t="s">
-        <v>589</v>
+        <v>45</v>
       </c>
       <c r="N171" s="5"/>
       <c r="S171" s="5"/>
@@ -32085,22 +31977,26 @@
       <c r="V171" s="5"/>
       <c r="W171" s="5"/>
       <c r="X171" s="5"/>
+      <c r="Y171" s="5"/>
+      <c r="Z171" s="5"/>
     </row>
     <row r="172">
       <c r="A172" s="5"/>
       <c r="C172" s="21" t="s">
-        <v>647</v>
-      </c>
+        <v>649</v>
+      </c>
+      <c r="F172" s="5"/>
       <c r="H172" s="5"/>
       <c r="J172" s="21" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K172" s="21" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="M172" s="21" t="s">
-        <v>650</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="N172" s="5"/>
       <c r="S172" s="5"/>
       <c r="T172" s="5"/>
       <c r="U172" s="5"/>
@@ -32111,36 +32007,36 @@
     <row r="173">
       <c r="A173" s="5"/>
       <c r="C173" s="21" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H173" s="5"/>
       <c r="J173" s="21" t="s">
-        <v>652</v>
+        <v>653</v>
+      </c>
+      <c r="K173" s="21" t="s">
+        <v>654</v>
       </c>
       <c r="M173" s="21" t="s">
-        <v>653</v>
-      </c>
-      <c r="N173" s="5"/>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
+        <v>655</v>
+      </c>
       <c r="S173" s="5"/>
       <c r="T173" s="5"/>
       <c r="U173" s="5"/>
       <c r="V173" s="5"/>
       <c r="W173" s="5"/>
+      <c r="X173" s="5"/>
     </row>
     <row r="174">
       <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-      <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
-      <c r="G174" s="5"/>
+      <c r="C174" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="H174" s="5"/>
       <c r="J174" s="21" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="M174" s="21" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
@@ -32159,10 +32055,10 @@
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
       <c r="J175" s="21" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="M175" s="21" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
@@ -32177,14 +32073,14 @@
     <row r="176">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
+      <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
       <c r="J176" s="21" t="s">
-        <v>436</v>
+        <v>660</v>
       </c>
       <c r="M176" s="21" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
@@ -32197,6 +32093,18 @@
       <c r="W176" s="5"/>
     </row>
     <row r="177">
+      <c r="A177" s="5"/>
+      <c r="B177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="J177" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="M177" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="N177" s="5"/>
       <c r="O177" s="5"/>
       <c r="P177" s="5"/>
       <c r="Q177" s="5"/>
@@ -32205,14 +32113,11 @@
       <c r="U177" s="5"/>
       <c r="V177" s="5"/>
       <c r="W177" s="5"/>
-      <c r="Y177" s="5"/>
-      <c r="Z177" s="5"/>
     </row>
     <row r="178">
       <c r="O178" s="5"/>
       <c r="P178" s="5"/>
       <c r="Q178" s="5"/>
-      <c r="R178" s="5"/>
       <c r="S178" s="5"/>
       <c r="T178" s="5"/>
       <c r="U178" s="5"/>
@@ -32231,7 +32136,6 @@
       <c r="U179" s="5"/>
       <c r="V179" s="5"/>
       <c r="W179" s="5"/>
-      <c r="X179" s="5"/>
       <c r="Y179" s="5"/>
       <c r="Z179" s="5"/>
     </row>
@@ -32278,6 +32182,9 @@
       <c r="Z182" s="5"/>
     </row>
     <row r="183">
+      <c r="O183" s="5"/>
+      <c r="P183" s="5"/>
+      <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
       <c r="S183" s="5"/>
       <c r="T183" s="5"/>
@@ -32333,43 +32240,47 @@
       <c r="Z187" s="5"/>
     </row>
     <row r="188">
+      <c r="R188" s="5"/>
       <c r="S188" s="5"/>
       <c r="T188" s="5"/>
       <c r="U188" s="5"/>
       <c r="V188" s="5"/>
       <c r="W188" s="5"/>
       <c r="X188" s="5"/>
+      <c r="Y188" s="5"/>
+      <c r="Z188" s="5"/>
     </row>
     <row r="189">
+      <c r="S189" s="5"/>
       <c r="T189" s="5"/>
       <c r="U189" s="5"/>
       <c r="V189" s="5"/>
       <c r="W189" s="5"/>
       <c r="X189" s="5"/>
     </row>
-    <row r="192">
-      <c r="O192" s="5"/>
-      <c r="P192" s="5"/>
-      <c r="Q192" s="5"/>
-      <c r="R192" s="5"/>
-      <c r="Y192" s="5"/>
-      <c r="Z192" s="5"/>
+    <row r="190">
+      <c r="T190" s="5"/>
+      <c r="U190" s="5"/>
+      <c r="V190" s="5"/>
+      <c r="W190" s="5"/>
+      <c r="X190" s="5"/>
     </row>
     <row r="193">
-      <c r="S193" s="5"/>
+      <c r="O193" s="5"/>
+      <c r="P193" s="5"/>
+      <c r="Q193" s="5"/>
+      <c r="R193" s="5"/>
       <c r="Y193" s="5"/>
       <c r="Z193" s="5"/>
     </row>
     <row r="194">
-      <c r="T194" s="5"/>
-      <c r="U194" s="5"/>
-      <c r="V194" s="5"/>
-      <c r="W194" s="5"/>
-      <c r="X194" s="5"/>
+      <c r="S194" s="5"/>
       <c r="Y194" s="5"/>
       <c r="Z194" s="5"/>
     </row>
     <row r="195">
+      <c r="T195" s="5"/>
+      <c r="U195" s="5"/>
       <c r="V195" s="5"/>
       <c r="W195" s="5"/>
       <c r="X195" s="5"/>
@@ -32377,6 +32288,8 @@
       <c r="Z195" s="5"/>
     </row>
     <row r="196">
+      <c r="V196" s="5"/>
+      <c r="W196" s="5"/>
       <c r="X196" s="5"/>
       <c r="Y196" s="5"/>
       <c r="Z196" s="5"/>
@@ -32427,15 +32340,6 @@
       <c r="Z205" s="5"/>
     </row>
     <row r="206">
-      <c r="O206" s="5"/>
-      <c r="P206" s="5"/>
-      <c r="Q206" s="5"/>
-      <c r="R206" s="5"/>
-      <c r="S206" s="5"/>
-      <c r="T206" s="5"/>
-      <c r="U206" s="5"/>
-      <c r="V206" s="5"/>
-      <c r="W206" s="5"/>
       <c r="X206" s="5"/>
       <c r="Y206" s="5"/>
       <c r="Z206" s="5"/>
@@ -32566,21 +32470,28 @@
       <c r="Y215" s="5"/>
       <c r="Z215" s="5"/>
     </row>
-    <row r="218">
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
-      <c r="W218" s="5"/>
-      <c r="X218" s="5"/>
-      <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
+    <row r="216">
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5"/>
+      <c r="V216" s="5"/>
+      <c r="W216" s="5"/>
+      <c r="X216" s="5"/>
+      <c r="Y216" s="5"/>
+      <c r="Z216" s="5"/>
     </row>
     <row r="219">
+      <c r="O219" s="5"/>
+      <c r="P219" s="5"/>
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+      <c r="S219" s="5"/>
+      <c r="T219" s="5"/>
+      <c r="U219" s="5"/>
       <c r="V219" s="5"/>
       <c r="W219" s="5"/>
       <c r="X219" s="5"/>
@@ -32791,13 +32702,6 @@
       <c r="Z248" s="5"/>
     </row>
     <row r="249">
-      <c r="O249" s="5"/>
-      <c r="P249" s="5"/>
-      <c r="Q249" s="5"/>
-      <c r="R249" s="5"/>
-      <c r="S249" s="5"/>
-      <c r="T249" s="5"/>
-      <c r="U249" s="5"/>
       <c r="V249" s="5"/>
       <c r="W249" s="5"/>
       <c r="X249" s="5"/>
@@ -33029,20 +32933,6 @@
       <c r="Z265" s="5"/>
     </row>
     <row r="266">
-      <c r="A266" s="5"/>
-      <c r="B266" s="5"/>
-      <c r="C266" s="5"/>
-      <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
-      <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
-      <c r="M266" s="5"/>
-      <c r="N266" s="5"/>
       <c r="O266" s="5"/>
       <c r="P266" s="5"/>
       <c r="Q266" s="5"/>
@@ -54392,29 +54282,57 @@
       <c r="Y1028" s="5"/>
       <c r="Z1028" s="5"/>
     </row>
+    <row r="1029">
+      <c r="A1029" s="5"/>
+      <c r="B1029" s="5"/>
+      <c r="C1029" s="5"/>
+      <c r="D1029" s="5"/>
+      <c r="E1029" s="5"/>
+      <c r="F1029" s="5"/>
+      <c r="G1029" s="5"/>
+      <c r="H1029" s="5"/>
+      <c r="I1029" s="5"/>
+      <c r="J1029" s="5"/>
+      <c r="K1029" s="5"/>
+      <c r="L1029" s="5"/>
+      <c r="M1029" s="5"/>
+      <c r="N1029" s="5"/>
+      <c r="O1029" s="5"/>
+      <c r="P1029" s="5"/>
+      <c r="Q1029" s="5"/>
+      <c r="R1029" s="5"/>
+      <c r="S1029" s="5"/>
+      <c r="T1029" s="5"/>
+      <c r="U1029" s="5"/>
+      <c r="V1029" s="5"/>
+      <c r="W1029" s="5"/>
+      <c r="X1029" s="5"/>
+      <c r="Y1029" s="5"/>
+      <c r="Z1029" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D20:O20"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D120:O120"/>
-    <mergeCell ref="D128:O128"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="D51:O51"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="D82:N82"/>
-    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D21:O21"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D121:O121"/>
+    <mergeCell ref="D129:O129"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D38:O38"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D83:N83"/>
+    <mergeCell ref="A103:B103"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E53"/>
-    <hyperlink r:id="rId2" ref="A154"/>
+    <hyperlink r:id="rId1" ref="E54"/>
+    <hyperlink r:id="rId2" ref="A155"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
